--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0BBB5D-841C-445A-AD3B-38E197D17A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C84EE5-F887-4DBF-9C44-15ABF00FA9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10510,7 +10510,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D380A1E3-8BC9-1CFA-ED9A-AE58F41E9B68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F590196-7A1C-53A7-C335-E8386482D5F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10565,7 +10565,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02779FE2-24AA-8906-FE91-2E6FD7711163}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ECF87C-07F9-2A92-5AE7-1544BC91CF76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11655,7 +11655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BBB255-2A14-4B00-9736-FDFB6984BCAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C285C74-316D-4C5C-8244-1FFA6B013E06}">
   <dimension ref="A1:AI1396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27EF7A6B-D00E-41EB-AA22-234DA73B91A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13B83A30-B8EC-43DB-9DB1-40A14CBEEC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10960,7 +10960,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999AFFB5-CB07-8DC0-BD3C-1B36E5463C1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBE76E9-AE3B-8B84-0281-FAFC6E75DBDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11015,7 +11015,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB72795-4F39-BBA8-9E6D-BADFE38D8BD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1CD3F7D-BA90-0B23-FD10-7C9920B65B52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12118,7 +12118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B16A5AB-9FB6-468D-AED6-2BAF942A7672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FD0894-13F8-41A9-836C-260FF43BBCDC}">
   <dimension ref="A1:AI1514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F88E09-5B48-47E2-B2E8-679D704B3CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90EB55AE-A981-41D6-A528-2D0A1B72A34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11477,7 +11477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E16403-968A-4129-A5D3-E301EEE71F4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D2B912-52A7-4371-A99B-E661C727B26F}">
   <dimension ref="B2:AI1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90EB55AE-A981-41D6-A528-2D0A1B72A34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4CB2689-9616-4983-BC9E-F919DA55527C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11477,7 +11477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D2B912-52A7-4371-A99B-E661C727B26F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C1195D-A4E2-4D1D-95C6-C77BBD1949A8}">
   <dimension ref="B2:AI1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F132B234-E18A-4363-A9BB-34FBA6694BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33309F3F-CDD9-48F0-875B-89920DA8A1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10725,7 +10725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58541FE-E42C-443B-90C8-083856543CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8992E7-DFBE-4050-8AE3-E715AC7542F6}">
   <dimension ref="B2:AI1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D2FA234-C630-48D5-8CB1-992C5723D1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DDA8CF2-9CCA-49C3-8D75-102146F764DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10753,7 +10753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E176001D-E194-49F7-B547-E9E8E686D64A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE05345-0D9B-4953-8EFA-3B88E734536F}">
   <dimension ref="B2:AI1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DDA8CF2-9CCA-49C3-8D75-102146F764DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C420BA-340F-4DC0-A17A-A0ECB51E72E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10753,7 +10753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE05345-0D9B-4953-8EFA-3B88E734536F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311DF532-5759-4DF4-8E20-01064DEF58C4}">
   <dimension ref="B2:AI1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C420BA-340F-4DC0-A17A-A0ECB51E72E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13461A3B-F65A-4D7A-A2DE-F6182455C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10753,7 +10753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311DF532-5759-4DF4-8E20-01064DEF58C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AD821D-C092-45A3-8387-B319D7316830}">
   <dimension ref="B2:AI1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13461A3B-F65A-4D7A-A2DE-F6182455C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA53C19D-B16B-4CBF-97B1-61735D273EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10753,7 +10753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AD821D-C092-45A3-8387-B319D7316830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F490EB4A-C812-49B7-81D0-9A25D99747EB}">
   <dimension ref="B2:AI1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA53C19D-B16B-4CBF-97B1-61735D273EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BEB993-5697-4434-BD7E-4EF560978619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10753,7 +10753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F490EB4A-C812-49B7-81D0-9A25D99747EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1763D94-5169-4EB2-93B9-D53E0C19101F}">
   <dimension ref="B2:AI1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BEB993-5697-4434-BD7E-4EF560978619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7159611-61D9-4F80-A314-E616D1F34986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10753,7 +10753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1763D94-5169-4EB2-93B9-D53E0C19101F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51961EE6-D0E6-4F41-BC91-F27B380E277D}">
   <dimension ref="B2:AI1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
